--- a/holdings.xlsx
+++ b/holdings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansh\Desktop\Trading\Skyguard Capital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C462D69D-9F76-45E2-8283-D7D6F52F9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2A109-D098-481E-AA90-3F037597FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F074CF61-DB93-422C-BCAA-A2A4E4F74150}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Ticker</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>CMP</t>
   </si>
   <si>
@@ -85,6 +82,33 @@
   </si>
   <si>
     <t>jsw.in</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Deployable Capital</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>stargate.capital</t>
+  </si>
+  <si>
+    <t>TATASTEEL</t>
+  </si>
+  <si>
+    <t>Tata Steel</t>
+  </si>
+  <si>
+    <t>Non energy mineral</t>
+  </si>
+  <si>
+    <t>tatasteel.com</t>
   </si>
 </sst>
 </file>
@@ -469,15 +493,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B8B975-68FC-4550-A54B-842F9BC57DC7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,73 +520,113 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>319</v>
+      </c>
+      <c r="E2" s="2">
+        <v>723</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <v>725</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>229</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1148</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1177</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>367</v>
+      </c>
+      <c r="E4" s="2">
+        <v>488</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>485</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>781</v>
+      </c>
+      <c r="E5" s="2">
+        <v>168</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>350000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
